--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Maule.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Maule.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R4a7e72f1bb084b95"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9ab6800a13fa4f3f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1827652.3470746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13025252.765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31140.35856</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82752</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1829854.5583188</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14495680.119403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32228.337894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1831466.7598072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15397925.596059</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34637.363729</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1821237.9674826</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16458339.555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34059.539077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1905639.7063256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19130573.940886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36669.129554</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84869</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2013604.7583452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22159962.901477</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38480.013387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1968231.6185764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22201880.049019</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35506.70747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86170</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1910261.2809794</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13155773.153846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37381.594113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1897335.6026695</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16178833.572115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35157.762611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1803851.0448263</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19092099.663507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38001.166825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87850</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1779493.2988503</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17873530.17757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38590.786355999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1840291.5911064</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18451798.674311</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40639.708498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1879588.4429994</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20074718.633484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42256.541392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1899655.8976414</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19371973.627272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42795.678323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1889032.467488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16004999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38929.989105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90010</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1892988.2029774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18294784.709251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43812.85964</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91639</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972195.9797357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20929770.174672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47955.676496</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2026992.1277175</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19018875.069565</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43927.3399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93289</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1934297.8809505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17841086.222707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44322.625294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93978</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1877349.6801698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21576975.948275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47145.341268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94493</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876581.6410104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23745861.679487</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46517.490994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95179</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1840641.5146303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19466306.761506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46406.256397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95790</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1823289.7745902</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18964826.487603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47700.66876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96403</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882275.3699988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16846449.577235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52771.164507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1927935.3160333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18977052.639676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54419.370817</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97246</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1979175.568013</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18285003.012</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54295.601717</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97897</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2001820.2809483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20446493.394422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52604.336929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990448.7044714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22261826.988142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54248.668273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2105510.9588553</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24719603.552941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58299.228852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2147772.4608425</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24487120.429687</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55808.761962</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100793</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2071235.2193703</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23983710.529182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>58999.909324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101639</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2030113.9435846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24316610.46875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56189.198537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102391</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2050600.2883261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25169645.641732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61493.605684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1976354.167314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20544938.762452</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61030.460626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103975</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1958893.4098292</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19727429.656603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57713.592661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104520</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016075.6654324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20515046.757462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>66881.131491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105079</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2098408.3871087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21743474.54909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68910.947201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2131987.1040388</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23010901.545454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65321.090262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106298</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2112224.9331031</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25128096.261648</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69180.861567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106960</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2091237.1904917</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28582274.184027</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71906.225625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107735</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2153141.3699726</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34919692.153846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73299.859477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2189249.5162665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31574052.532679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74473.610694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109108</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2130327.6466253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36433459.635483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74092.914086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110041</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2073949.7845712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34949008.977492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73463.996529</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110520</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2081310.9775696</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31188334.990353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77425.509734</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111141</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2045657.0315005</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29936978.996805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76766.673582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111849</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2000325.3409418</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30099993.325949</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74003.720653</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112525</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2046037.7682737</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30207153.252365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83807.359919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113024</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2089387.2781356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35210658.528125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81148.600462</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2076904.330323</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36796860.604938</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82559.680547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2070067.866485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36945095.753799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83662.132751</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2101866.3659386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37695337.242424</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87680.768499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2120163.3544732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34380454.635542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91283.218735</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2199846.2891197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39712927.045045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93599.092133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117115</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2124452.3292148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38743037.824925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87874.859787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2088607.0404251</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32603852.754985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95014.750084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2086261.2877833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27877499.280112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96515.833274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119300</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2048825.280746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24364169.118457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93353.827843</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120100</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2040313.9580016</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21853231.41576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96841.614897</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2106627.393175</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19944984.785714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109115.368328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121630</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2136007.2267697</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19136808.50259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106670.658092</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122261</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2136736.7804205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22735028.431818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108581.609712</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123105</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2120860.0415986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18775647.396984</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113899.439674</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2127794.6503952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15907723.590123</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108053.437328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2236812.0666447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19768552.423076</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116551.859087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125176</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2291822.6864574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19154167.940898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121680.605782</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125820</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2231493.8107932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18120175.321596</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112456.168199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126675</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2183310.7684862</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16230035.530092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118969.859943</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>127317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2204085.5553539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14216523.267281</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118315.146703</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2141562.7468894</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16172456.085585</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118235.357476</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129255</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2050684.3067657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13568295.362222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120535.123935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2137765.6985645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12293544.523385</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132752.289444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130870</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2161373.9910445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11058886.571428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132112.467057</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131553</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2158939.8899911</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11489319.397379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133759.128761</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>132667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2180851.9339775</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14716242.506437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134824.354587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2192351.0673587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16691442.427966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136075.574731</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2262437.4097289</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22448654.67364</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143619.455597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135790</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2284480.7116356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17334398.185567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146179.654486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2242432.5479966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17762833.239837</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138840.458453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137968</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2203422.6521657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12360375.838383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146260.148649</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138360</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2218531.3491543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14131599.766393</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>137959.237377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2195362.2965752</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13605275.848979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145402.579784</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139656</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2190603.8323953</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14683333.228346</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>149777.811805</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140240</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2281006.4241229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14958825.40613</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158320.816239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140948</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2278044.8299727</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14863484.891992</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165338.410596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141304</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2286273.1368751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16096690.258241</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>168211.962191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141724</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2335900.0285907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>17700528.166065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>169965.292372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141585</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2502425.3697778</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26836415.492982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>195577.93738</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2805795.9021164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35569614.075342</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>205372.876705</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3052586.8207327</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33299701.868988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203800.680176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141930</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3146845.2542239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31062415.40836</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>221768.265215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>142446</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3332416.6165845</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27136553.18237</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>404679.407532</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143046</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3585780.9188163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26313511.471365</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>396337.912247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>143876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3644929.0693513</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28608806.411847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>362148.524138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>144876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3580086.9485905</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28635248.878828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>327225.073173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>144344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3683950.0980297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26943941.410156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>498239.113671</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>479015.153466</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>447131.559434</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>436076.127104</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>451523.854024</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>587813.564456</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>554593.201888</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>553889.874247</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>530024.207541</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>523801.093543</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>502961.289029</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>478647.795643</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>488459.469967</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>459091.075413</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>436113.196694</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>412140.167274</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>402552.125617</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>381561.401355</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>368294.021567</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>350888.1621</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>341103.705701</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>336588.688408</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>323816.933421</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>307511.821624</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>333250.617923</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>319293.037935</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>313038.351647</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>310813.671182</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>310423.473092</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>302634.981206</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>307226.148527</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>285012.534513</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>288883.609961</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>297833.03572</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>284098.552674</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>285906.100824</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>307632.918511</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>311036.455764</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>312672.733585</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>315911.918473</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>307031.539159</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>319035.367717</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>319543.295058</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>305071.71281</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
